--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/30.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/30.xlsx
@@ -479,13 +479,13 @@
         <v>-22.28924154393712</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.96406680811778</v>
+        <v>-9.085380086249213</v>
       </c>
       <c r="F2" t="n">
-        <v>5.998890448239792</v>
+        <v>5.633510460532901</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.92351604508842</v>
+        <v>-15.79243590903706</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-21.79016091532927</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.231450909054351</v>
+        <v>-9.397710062841432</v>
       </c>
       <c r="F3" t="n">
-        <v>5.915152079264113</v>
+        <v>5.536444127264344</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.458503632756</v>
+        <v>-15.32696526610517</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-20.95655872390497</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.272639293794422</v>
+        <v>-9.460566208784558</v>
       </c>
       <c r="F4" t="n">
-        <v>6.046546430583676</v>
+        <v>5.685827302688439</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.66823914092657</v>
+        <v>-14.56888165466071</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-19.816738491227</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.2425825498237</v>
+        <v>-10.40469144360995</v>
       </c>
       <c r="F5" t="n">
-        <v>6.118920680692737</v>
+        <v>5.752807524026709</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.66360128236672</v>
+        <v>-13.63737739977474</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-18.42143622432826</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.83397496148731</v>
+        <v>-10.993399933191</v>
       </c>
       <c r="F6" t="n">
-        <v>6.32805712628647</v>
+        <v>5.967128521545765</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.90850271597017</v>
+        <v>-12.87986984965531</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-16.81803416741466</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.66176199326112</v>
+        <v>-11.78993563808162</v>
       </c>
       <c r="F7" t="n">
-        <v>6.648425776823506</v>
+        <v>6.278568221544744</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.55516446352379</v>
+        <v>-11.59801557072475</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.08546052431491</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.46488312648112</v>
+        <v>-12.5891290804491</v>
       </c>
       <c r="F8" t="n">
-        <v>6.926453919970401</v>
+        <v>6.537010279640417</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.81619561422824</v>
+        <v>-10.8938722469882</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-13.27516069822635</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.20641806713365</v>
+        <v>-13.30756919888882</v>
       </c>
       <c r="F9" t="n">
-        <v>6.992124911024499</v>
+        <v>6.602890747539983</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.587142592658365</v>
+        <v>-9.737507690795589</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-11.46587942299006</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.24624803573206</v>
+        <v>-14.33701697133374</v>
       </c>
       <c r="F10" t="n">
-        <v>7.143576670297586</v>
+        <v>6.769032070601487</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.943223861993753</v>
+        <v>-9.12692196316601</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-9.696013742420956</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.14368611862385</v>
+        <v>-15.24210095908511</v>
       </c>
       <c r="F11" t="n">
-        <v>7.373765538860813</v>
+        <v>6.991129896008528</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.120254797665693</v>
+        <v>-8.361624492855755</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.032393720950369</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.41737080058117</v>
+        <v>-16.46945198128556</v>
       </c>
       <c r="F12" t="n">
-        <v>7.304323964588298</v>
+        <v>6.93585419341076</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.681911406221863</v>
+        <v>-7.935548589174622</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.498613254826221</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.39231531629599</v>
+        <v>-17.40027543642375</v>
       </c>
       <c r="F13" t="n">
-        <v>7.198904742106721</v>
+        <v>6.810508486004075</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.429347792102125</v>
+        <v>-7.637842714856613</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.147351884880641</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.77266298950485</v>
+        <v>-18.74231503151773</v>
       </c>
       <c r="F14" t="n">
-        <v>7.194296251506433</v>
+        <v>6.844784134843714</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.491245016583927</v>
+        <v>-6.736175818146938</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.986529901890405</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.86518947704121</v>
+        <v>-19.80915442087862</v>
       </c>
       <c r="F15" t="n">
-        <v>7.181649086961325</v>
+        <v>6.816269099254434</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.024124743493982</v>
+        <v>-6.264617254393649</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.039843729740021</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.82561462890455</v>
+        <v>-20.766267220123</v>
       </c>
       <c r="F16" t="n">
-        <v>7.079686232429963</v>
+        <v>6.734206545042495</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.416209845644116</v>
+        <v>-5.666731060520545</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.290823531961153</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.90981441183357</v>
+        <v>-21.81155667900641</v>
       </c>
       <c r="F17" t="n">
-        <v>7.400159621389734</v>
+        <v>7.040880646807087</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.506153966166774</v>
+        <v>-5.708325306648709</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.731541363067089</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.77546438342565</v>
+        <v>-22.66023902611562</v>
       </c>
       <c r="F18" t="n">
-        <v>7.79387135244612</v>
+        <v>7.407622234009517</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.958267276846222</v>
+        <v>-5.177825195501968</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.328111230066292</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.39152269364307</v>
+        <v>-23.27926928907811</v>
       </c>
       <c r="F19" t="n">
-        <v>8.099079116292438</v>
+        <v>7.715081873944612</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.094358581532085</v>
+        <v>-4.3179227448574</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.054660784332757</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.30382054026023</v>
+        <v>-24.17445549588113</v>
       </c>
       <c r="F20" t="n">
-        <v>8.322145772109767</v>
+        <v>7.927124810769207</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.649992730781061</v>
+        <v>-3.834738216180658</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.875434041613006</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.41325909971422</v>
+        <v>-24.34955195408638</v>
       </c>
       <c r="F21" t="n">
-        <v>8.162026908355458</v>
+        <v>7.787429939447991</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.62290475620153</v>
+        <v>-3.782918881533106</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.765445537844289</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.09090360249911</v>
+        <v>-25.03094085548401</v>
       </c>
       <c r="F22" t="n">
-        <v>8.564431928498749</v>
+        <v>8.179413486529269</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.024118376786225</v>
+        <v>-4.132548828921401</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.7031072863506068</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.21541140252393</v>
+        <v>-25.18566569046753</v>
       </c>
       <c r="F23" t="n">
-        <v>8.19572649587006</v>
+        <v>7.846371486841441</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.920885568879215</v>
+        <v>-4.012282935017304</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.6762301740733201</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.62341992828348</v>
+        <v>-25.59125214020136</v>
       </c>
       <c r="F24" t="n">
-        <v>8.170301243751428</v>
+        <v>7.820605834848925</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.792698831755875</v>
+        <v>-3.865753881612707</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.6805087532482132</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.65769557712312</v>
+        <v>-25.66366566721895</v>
       </c>
       <c r="F25" t="n">
-        <v>8.301250456774373</v>
+        <v>7.941290682443955</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.683561395267247</v>
+        <v>-3.762861473579581</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-0.7154922570600901</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.98364154867073</v>
+        <v>-25.98814530084829</v>
       </c>
       <c r="F26" t="n">
-        <v>8.198685356312289</v>
+        <v>7.845088441162952</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.500845216808118</v>
+        <v>-3.570666467863043</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.7872551910816474</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.94913023837994</v>
+        <v>-25.93506910512793</v>
       </c>
       <c r="F27" t="n">
-        <v>8.112695111247833</v>
+        <v>7.782821448847703</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.630092430461637</v>
+        <v>-3.672786430028506</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.8977235184848407</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.88813319944034</v>
+        <v>-25.88595987716862</v>
       </c>
       <c r="F28" t="n">
-        <v>7.986694788699062</v>
+        <v>7.639382178913753</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.867809373158857</v>
+        <v>-3.885536351206555</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.049869232006834</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.73956174679244</v>
+        <v>-25.78992783582455</v>
       </c>
       <c r="F29" t="n">
-        <v>7.927962718151078</v>
+        <v>7.587327182815049</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.666135540184909</v>
+        <v>-3.680379965676707</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.23678222776479</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.61319483976409</v>
+        <v>-25.65308708652283</v>
       </c>
       <c r="F30" t="n">
-        <v>8.030004126499492</v>
+        <v>7.686383546115549</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.819027452770586</v>
+        <v>-3.840420275613967</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.450610775293763</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.29247269705033</v>
+        <v>-25.32138050172486</v>
       </c>
       <c r="F31" t="n">
-        <v>7.861087235235542</v>
+        <v>7.520844468984764</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.21780590502672</v>
+        <v>-4.214755398464598</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.675275504305046</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.85877707311531</v>
+        <v>-24.90135324195661</v>
       </c>
       <c r="F32" t="n">
-        <v>8.01149161028129</v>
+        <v>7.645771222700515</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.126722754156832</v>
+        <v>-4.14582442400291</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.89890355718226</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.70898803630313</v>
+        <v>-24.74226867012679</v>
       </c>
       <c r="F33" t="n">
-        <v>8.032989171547404</v>
+        <v>7.64786599115519</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.261259258158409</v>
+        <v>-4.280923897026682</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.107174592208104</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.32622147042242</v>
+        <v>-24.3433462025394</v>
       </c>
       <c r="F34" t="n">
-        <v>8.157575525389269</v>
+        <v>7.761062041524754</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.291188262454595</v>
+        <v>-4.318328606245493</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.293148636722884</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.1734081116538</v>
+        <v>-24.20065319386743</v>
       </c>
       <c r="F35" t="n">
-        <v>8.050271011298483</v>
+        <v>7.65786851052627</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.4611263533402</v>
+        <v>-4.483213068234192</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.449765960717311</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.84234304969507</v>
+        <v>-23.84392721833892</v>
       </c>
       <c r="F36" t="n">
-        <v>8.199287602243009</v>
+        <v>7.795232951941659</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.385033889224087</v>
+        <v>-4.431419918192323</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.577686846881079</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.25603045153405</v>
+        <v>-23.27619259791031</v>
       </c>
       <c r="F37" t="n">
-        <v>8.159356078575744</v>
+        <v>7.76307825616238</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.501018600098939</v>
+        <v>-4.545872829634693</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.676344273321277</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.76277794197202</v>
+        <v>-22.76821124765134</v>
       </c>
       <c r="F38" t="n">
-        <v>8.14634232955107</v>
+        <v>7.726000854514612</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.47774048564635</v>
+        <v>-4.503820352907068</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.750196279271843</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.58541651537516</v>
+        <v>-22.57871325632019</v>
       </c>
       <c r="F39" t="n">
-        <v>8.308477407943005</v>
+        <v>7.89528433025813</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.71985644209839</v>
+        <v>-4.715431243737886</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.800640781316141</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.8887096196527</v>
+        <v>-21.88107680709598</v>
       </c>
       <c r="F40" t="n">
-        <v>8.591637733803855</v>
+        <v>8.158570540405242</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.671283998555587</v>
+        <v>-4.684533409031413</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.833787118726649</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.20872159465913</v>
+        <v>-21.21789929895118</v>
       </c>
       <c r="F41" t="n">
-        <v>8.575455647491482</v>
+        <v>8.149563036050134</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.704747924619038</v>
+        <v>-4.70870180007724</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.852248341063282</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.50827030032395</v>
+        <v>-20.5085059617751</v>
       </c>
       <c r="F42" t="n">
-        <v>8.572313494809469</v>
+        <v>8.16440970747265</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.040513123297945</v>
+        <v>-5.047844812889312</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.862819252172124</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.65136598703014</v>
+        <v>-19.68729126602783</v>
       </c>
       <c r="F43" t="n">
-        <v>8.686661667829103</v>
+        <v>8.270483545096315</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.203459924466068</v>
+        <v>-5.20552850831506</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.868297027503103</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.98107935844229</v>
+        <v>-18.99874087497578</v>
       </c>
       <c r="F44" t="n">
-        <v>8.446679756740265</v>
+        <v>8.060823407388915</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.986415727955933</v>
+        <v>-5.010715042030176</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.876134000071593</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.50373399683295</v>
+        <v>-18.53874281463173</v>
       </c>
       <c r="F45" t="n">
-        <v>8.495435492522853</v>
+        <v>8.094941948594453</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.163227277833443</v>
+        <v>-5.210490491092075</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.889672556552923</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.83374849121046</v>
+        <v>-17.84944616231769</v>
       </c>
       <c r="F46" t="n">
-        <v>8.56147306805652</v>
+        <v>8.192950927667614</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.293443321897251</v>
+        <v>-5.34699084051991</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.915490303021297</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.69854427976396</v>
+        <v>-17.69431546594608</v>
       </c>
       <c r="F47" t="n">
-        <v>8.429555024623287</v>
+        <v>8.058702454328555</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.596949086374145</v>
+        <v>-5.641633115972955</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.954441710653603</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.0439422299805</v>
+        <v>-17.05882817831154</v>
       </c>
       <c r="F48" t="n">
-        <v>8.369120954705879</v>
+        <v>8.012381886874527</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.693805942797234</v>
+        <v>-5.735845327222016</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.009131684632063</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.16798861605198</v>
+        <v>-16.2010990499387</v>
       </c>
       <c r="F49" t="n">
-        <v>8.305544732106458</v>
+        <v>7.956320646106257</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.907105740694635</v>
+        <v>-5.971428224556036</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.079213128726696</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.61447223650948</v>
+        <v>-15.6448201944966</v>
       </c>
       <c r="F50" t="n">
-        <v>8.047259781644886</v>
+        <v>7.701177848326699</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.142138761309301</v>
+        <v>-6.196196879742788</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.167154306843503</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.89109631989843</v>
+        <v>-14.92596112236595</v>
       </c>
       <c r="F51" t="n">
-        <v>7.866376525583599</v>
+        <v>7.544253506465771</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.089821919153764</v>
+        <v>-6.152180557588905</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.275593348573314</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.21261390973166</v>
+        <v>-14.2611339840631</v>
       </c>
       <c r="F52" t="n">
-        <v>7.731054483411518</v>
+        <v>7.422704566883186</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.264970746570375</v>
+        <v>-6.348957869300048</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.406967652822213</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.72174419928682</v>
+        <v>-13.76852299734031</v>
       </c>
       <c r="F53" t="n">
-        <v>7.778212958247416</v>
+        <v>7.461012644998076</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.293315582222712</v>
+        <v>-6.383613194922097</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.565132132174213</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.28870319049389</v>
+        <v>-13.31648505712404</v>
       </c>
       <c r="F54" t="n">
-        <v>7.555591440726706</v>
+        <v>7.240407342114992</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.51318771614666</v>
+        <v>-6.601992806322088</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.74999115465037</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.69885567056561</v>
+        <v>-12.72201595429262</v>
       </c>
       <c r="F55" t="n">
-        <v>7.513355671759297</v>
+        <v>7.219066888482979</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.849319499305135</v>
+        <v>-6.919049104240168</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.964956025683867</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.41120468483004</v>
+        <v>-12.44428893411109</v>
       </c>
       <c r="F56" t="n">
-        <v>7.567453067101309</v>
+        <v>7.254101890887437</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.790587428757152</v>
+        <v>-6.882390656283335</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.20577095405511</v>
       </c>
       <c r="E57" t="n">
-        <v>-11.95118043988032</v>
+        <v>-11.9906799175538</v>
       </c>
       <c r="F57" t="n">
-        <v>7.200816218321612</v>
+        <v>6.907705742301049</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.023852988488185</v>
+        <v>-7.122699874943217</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.475149348045549</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.51693493922595</v>
+        <v>-11.56330787589134</v>
       </c>
       <c r="F58" t="n">
-        <v>7.357662006365491</v>
+        <v>7.053056488449892</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.796508332995491</v>
+        <v>-7.850068943920992</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.765012217740002</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.50668366610087</v>
+        <v>-11.51362258660699</v>
       </c>
       <c r="F59" t="n">
-        <v>7.212363629428014</v>
+        <v>6.909617218515941</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.795565687190886</v>
+        <v>-7.872260397237718</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.077903617321634</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.28410142548869</v>
+        <v>-11.27731961261668</v>
       </c>
       <c r="F60" t="n">
-        <v>7.058110117346798</v>
+        <v>6.765706625679688</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.036752090141164</v>
+        <v>-8.110396293625874</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.402470842806911</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.3330535458139</v>
+        <v>-11.32391511843038</v>
       </c>
       <c r="F61" t="n">
-        <v>6.880159537122058</v>
+        <v>6.59650170375322</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.507538208026793</v>
+        <v>-8.576338259460062</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.741609986817607</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.43502949264811</v>
+        <v>-11.38692837200761</v>
       </c>
       <c r="F62" t="n">
-        <v>6.923861644007739</v>
+        <v>6.605011700600342</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.739285060628186</v>
+        <v>-8.79643296253232</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.083611036392294</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.05886144739963</v>
+        <v>-11.02660201319762</v>
       </c>
       <c r="F63" t="n">
-        <v>7.254992167480675</v>
+        <v>6.912366602112703</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.78725525824027</v>
+        <v>-8.837045285947355</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.432676207994628</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.78961823945954</v>
+        <v>-10.79384705327742</v>
       </c>
       <c r="F64" t="n">
-        <v>7.105844653507732</v>
+        <v>6.761831304038537</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.010007698789396</v>
+        <v>-9.049179868891841</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.77770927989192</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.82380224217929</v>
+        <v>-10.83447246899529</v>
       </c>
       <c r="F65" t="n">
-        <v>7.083771030916581</v>
+        <v>6.734389837282279</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.078388796531732</v>
+        <v>-9.117783535782486</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.123213456132635</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.53408267259473</v>
+        <v>-10.55349855770901</v>
       </c>
       <c r="F66" t="n">
-        <v>6.897441376873136</v>
+        <v>6.569741036744732</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.477455279450384</v>
+        <v>-9.492838735289412</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.457250686377459</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.76980958526001</v>
+        <v>-10.78952659333965</v>
       </c>
       <c r="F67" t="n">
-        <v>6.659240018970772</v>
+        <v>6.325360111901074</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.525412384759626</v>
+        <v>-9.540992225141281</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.783535215985545</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.93520464705953</v>
+        <v>-10.92491409702594</v>
       </c>
       <c r="F68" t="n">
-        <v>6.626823477134658</v>
+        <v>6.293624369812729</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.351873910592548</v>
+        <v>-9.367113351100317</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.089780063407108</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.73000898462116</v>
+        <v>-10.72140734165414</v>
       </c>
       <c r="F69" t="n">
-        <v>6.616794773157896</v>
+        <v>6.299856305965391</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.349399465355461</v>
+        <v>-9.383321622018373</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.379953556772305</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.98973408839532</v>
+        <v>-10.97012181873841</v>
       </c>
       <c r="F70" t="n">
-        <v>6.420776815011573</v>
+        <v>6.085352016206551</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.477848048535636</v>
+        <v>-9.478685955917506</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.642503363307036</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.95340294800953</v>
+        <v>-10.94063795273885</v>
       </c>
       <c r="F71" t="n">
-        <v>6.068384391723674</v>
+        <v>5.775509577154263</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.441660923481106</v>
+        <v>-9.450393489476536</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.881841576232178</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.98981264221237</v>
+        <v>-10.99075528801698</v>
       </c>
       <c r="F72" t="n">
-        <v>6.31365559316057</v>
+        <v>5.988338052149361</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.725161649215842</v>
+        <v>-9.70769651722498</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.089222473063996</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.43823710684433</v>
+        <v>-11.42970092539153</v>
       </c>
       <c r="F73" t="n">
-        <v>6.440179607823011</v>
+        <v>6.09763259627209</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.450890996984523</v>
+        <v>-9.464284422791607</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.271931798130579</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.56731412056091</v>
+        <v>-11.55728541658415</v>
       </c>
       <c r="F74" t="n">
-        <v>6.392811656141646</v>
+        <v>6.075270943018422</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.52665615352959</v>
+        <v>-9.527363137883045</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.423596909320231</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.09921510811171</v>
+        <v>-12.07702365479499</v>
       </c>
       <c r="F75" t="n">
-        <v>6.360997360236252</v>
+        <v>6.02701271474382</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.702367949968396</v>
+        <v>-9.672150915009693</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.555589292223623</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.98592741162226</v>
+        <v>-12.00114066752434</v>
       </c>
       <c r="F76" t="n">
-        <v>6.249738970687264</v>
+        <v>5.918739370242745</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.759921713260624</v>
+        <v>-9.708207117035807</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.663554967780058</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.69225714993338</v>
+        <v>-12.67822220128705</v>
       </c>
       <c r="F77" t="n">
-        <v>6.208943355032446</v>
+        <v>5.893706887209365</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.511272697690563</v>
+        <v>-9.469927205316392</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.756886954572654</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.38836179972511</v>
+        <v>-13.37431375877594</v>
       </c>
       <c r="F78" t="n">
-        <v>6.269691640218054</v>
+        <v>5.956288094792816</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.875733040844654</v>
+        <v>-8.874986779582676</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.82653036489153</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.64071593699938</v>
+        <v>-13.65861311498402</v>
       </c>
       <c r="F79" t="n">
-        <v>6.459713323662866</v>
+        <v>6.142591564230577</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.101680003287163</v>
+        <v>-9.061290249020438</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.875194242602916</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.2392960229231</v>
+        <v>-14.24948183453396</v>
       </c>
       <c r="F80" t="n">
-        <v>6.45541904833078</v>
+        <v>6.15186091464252</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.502039440833267</v>
+        <v>-8.490570583543915</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.888931319846796</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.82803069710983</v>
+        <v>-14.83588607881487</v>
       </c>
       <c r="F81" t="n">
-        <v>6.561231039897611</v>
+        <v>6.236044421914818</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.359752293549388</v>
+        <v>-8.353363249762626</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.865719322918634</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.67668685961336</v>
+        <v>-15.68692504043559</v>
       </c>
       <c r="F82" t="n">
-        <v>6.586603922804875</v>
+        <v>6.244763895607408</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.249397272896479</v>
+        <v>-8.242183414030688</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.7900648887021</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.6945610363462</v>
+        <v>-16.71175122997738</v>
       </c>
       <c r="F83" t="n">
-        <v>6.759788904795228</v>
+        <v>6.415382786240782</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.122087720063535</v>
+        <v>-8.098966713245046</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.657031728014758</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.5993439011322</v>
+        <v>-17.64706534499029</v>
       </c>
       <c r="F84" t="n">
-        <v>6.697731389325447</v>
+        <v>6.349502318341217</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.774762017975384</v>
+        <v>-7.746613566865673</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.453438425152697</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.46618527228289</v>
+        <v>-18.51352703935856</v>
       </c>
       <c r="F85" t="n">
-        <v>6.909355372459107</v>
+        <v>6.579167494790775</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.547309440706077</v>
+        <v>-7.534622999252444</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-9.176422424240442</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.75183631903754</v>
+        <v>-19.79265811929804</v>
       </c>
       <c r="F86" t="n">
-        <v>6.771755269592566</v>
+        <v>6.44866342006445</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.583169258189565</v>
+        <v>-7.544690980137732</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.82088374003159</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.7960129321794</v>
+        <v>-20.84572440606944</v>
       </c>
       <c r="F87" t="n">
-        <v>6.861385174847022</v>
+        <v>6.520409239637108</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.038241429311242</v>
+        <v>-7.035099276629228</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.389736158489187</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.12734302354885</v>
+        <v>-22.21445920665769</v>
       </c>
       <c r="F88" t="n">
-        <v>7.182434625131829</v>
+        <v>6.82108706670019</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.101293959796995</v>
+        <v>-7.097366268944477</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.88718405256428</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.7841477635636</v>
+        <v>-23.84030065045176</v>
       </c>
       <c r="F89" t="n">
-        <v>7.007940412857304</v>
+        <v>6.660156480169693</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.774771926924346</v>
+        <v>-6.774104219479419</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.324790829011472</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.0219333511289</v>
+        <v>-25.1286748961975</v>
       </c>
       <c r="F90" t="n">
-        <v>7.318411282445996</v>
+        <v>6.941981391140688</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.185948789971595</v>
+        <v>-7.168234904226741</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.71450478666772</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.76533058213883</v>
+        <v>-26.86758146733271</v>
       </c>
       <c r="F91" t="n">
-        <v>7.411340448016568</v>
+        <v>7.045698614252842</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.727168313791831</v>
+        <v>-6.715647087291112</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.070646615903363</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.75571410625792</v>
+        <v>-28.85357906999982</v>
       </c>
       <c r="F92" t="n">
-        <v>7.118020495150537</v>
+        <v>6.780788958553357</v>
       </c>
       <c r="G92" t="n">
-        <v>-6.983829818701029</v>
+        <v>-6.968184516805166</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.405006311885715</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.60964965016054</v>
+        <v>-30.71258133510219</v>
       </c>
       <c r="F93" t="n">
-        <v>7.155045527586938</v>
+        <v>6.797154337105514</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.24983604448534</v>
+        <v>-6.28464847774149</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.72814139172851</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.59236108481438</v>
+        <v>-32.70749479600452</v>
       </c>
       <c r="F94" t="n">
-        <v>7.110112744234134</v>
+        <v>6.769136809024221</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.618724769353814</v>
+        <v>-6.621853829732986</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.049213397625954</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.93969315361029</v>
+        <v>-35.02455746063035</v>
       </c>
       <c r="F95" t="n">
-        <v>7.085289738046222</v>
+        <v>6.7242302102771</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.988932633455423</v>
+        <v>-6.036496969679414</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.371430635992631</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.36959837642896</v>
+        <v>-37.44355679518187</v>
       </c>
       <c r="F96" t="n">
-        <v>6.83891878317062</v>
+        <v>6.495874264111714</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.921009766312548</v>
+        <v>-5.982818528028337</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.703172751401838</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.34920693530931</v>
+        <v>-39.43913796352913</v>
       </c>
       <c r="F97" t="n">
-        <v>6.780762773947673</v>
+        <v>6.423054875706034</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.503417674872853</v>
+        <v>-5.581500169020908</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.039059070039984</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.76091385717798</v>
+        <v>-41.85627819107712</v>
       </c>
       <c r="F98" t="n">
-        <v>6.69191840686372</v>
+        <v>6.337640691966612</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.685479238189896</v>
+        <v>-5.767450146281943</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.393656950871957</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.14496983544493</v>
+        <v>-44.19774490819993</v>
       </c>
       <c r="F99" t="n">
-        <v>6.521535177681497</v>
+        <v>6.175269952123526</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.420608859398937</v>
+        <v>-5.50892953436922</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.7524292423239221</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.26440418867492</v>
+        <v>-46.32821607272549</v>
       </c>
       <c r="F100" t="n">
-        <v>6.252750200340861</v>
+        <v>5.912350326455983</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.482037944332315</v>
+        <v>-5.574665986937527</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1507736400721643</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.68315476947244</v>
+        <v>-48.75728338816229</v>
       </c>
       <c r="F101" t="n">
-        <v>6.229498270493956</v>
+        <v>5.871580895406848</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.499005568815192</v>
+        <v>-5.608260836029396</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.4492597968303711</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.16690863387913</v>
+        <v>-51.20107954429604</v>
       </c>
       <c r="F102" t="n">
-        <v>5.49651260359708</v>
+        <v>5.187455702715294</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.179173702694666</v>
+        <v>-5.295891582528654</v>
       </c>
     </row>
   </sheetData>
